--- a/dummy_data_with_distances.xlsx
+++ b/dummy_data_with_distances.xlsx
@@ -1989,7 +1989,7 @@
         <v>93</v>
       </c>
       <c r="E62">
-        <v>2016.119184129029</v>
+        <v>2015.594714008756</v>
       </c>
     </row>
     <row r="63" spans="1:5">

--- a/dummy_data_with_distances.xlsx
+++ b/dummy_data_with_distances.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="185">
   <si>
     <t>Lnd</t>
   </si>
@@ -118,7 +118,7 @@
     <t>Niederlande</t>
   </si>
   <si>
-    <t>Japan Tokio</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Griechenland</t>
@@ -133,7 +133,7 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">Indien </t>
+    <t>Indien</t>
   </si>
   <si>
     <t>Schweiz</t>
@@ -160,183 +160,174 @@
     <t>Polen</t>
   </si>
   <si>
+    <t>Kroatien</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Österreich</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Norwegen</t>
+  </si>
+  <si>
+    <t>Ungarn</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Kopenhagen</t>
+  </si>
+  <si>
+    <t>Bad Arolsen</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Le Chesnay-Rocquencourt</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Mykonos</t>
+  </si>
+  <si>
+    <t>Brüssel</t>
+  </si>
+  <si>
+    <t>Busan</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>Fellbach</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Oberhausen</t>
+  </si>
+  <si>
+    <t>Herne</t>
+  </si>
+  <si>
+    <t>Wuppertal</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Wildau</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Halle an der Saale</t>
+  </si>
+  <si>
+    <t>Saarbrücken</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Bandung City</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City</t>
+  </si>
+  <si>
+    <t>Hamm</t>
+  </si>
+  <si>
+    <t>Chemnitz</t>
+  </si>
+  <si>
+    <t>Holzwickede</t>
+  </si>
+  <si>
+    <t>Limoges</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Castanheira de Pêra</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Poznan</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
     <t>Hagen</t>
   </si>
   <si>
-    <t>Kroatien</t>
-  </si>
-  <si>
-    <t>Italien</t>
-  </si>
-  <si>
-    <t>Österreich</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polen </t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankreich </t>
-  </si>
-  <si>
-    <t>Norwegen</t>
-  </si>
-  <si>
-    <t>Ungarn</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Kopenhagen</t>
-  </si>
-  <si>
-    <t>Bad Arolsen</t>
-  </si>
-  <si>
-    <t>Münster</t>
-  </si>
-  <si>
-    <t>Essen</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Le Chesnay-Rocquencourt</t>
-  </si>
-  <si>
-    <t>Antwerpen</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Düsseldorf</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Mykonos</t>
-  </si>
-  <si>
-    <t>Brüssel</t>
-  </si>
-  <si>
-    <t>Busan</t>
-  </si>
-  <si>
-    <t>Montreal</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Hanoi</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
-  </si>
-  <si>
-    <t>Guwahati</t>
-  </si>
-  <si>
-    <t>Fellbach</t>
-  </si>
-  <si>
-    <t>Zürich</t>
-  </si>
-  <si>
-    <t>Oberhausen</t>
-  </si>
-  <si>
-    <t>Herne</t>
-  </si>
-  <si>
-    <t>Wuppertal</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>Wildau</t>
-  </si>
-  <si>
-    <t>Köln</t>
-  </si>
-  <si>
-    <t>Halle an der Saale</t>
-  </si>
-  <si>
-    <t>Saarbrücken</t>
-  </si>
-  <si>
-    <t>Istanbul</t>
-  </si>
-  <si>
-    <t>Bandung City</t>
-  </si>
-  <si>
-    <t>Phnom Penh</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
-  </si>
-  <si>
-    <t>Ho Chi Minh City</t>
-  </si>
-  <si>
-    <t>Hamm</t>
-  </si>
-  <si>
-    <t>Chemnitz</t>
-  </si>
-  <si>
-    <t>Holzwickede</t>
-  </si>
-  <si>
-    <t>Limoges</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Castanheira</t>
-  </si>
-  <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>Poznan</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
     <t>Duisburg</t>
   </si>
   <si>
@@ -421,7 +412,7 @@
     <t>Osnabrück</t>
   </si>
   <si>
-    <t>Marl</t>
+    <t>Recklinghausen</t>
   </si>
   <si>
     <t>Ilmenau</t>
@@ -511,7 +502,7 @@
     <t>Datteln</t>
   </si>
   <si>
-    <t>Alba</t>
+    <t>Alba Cuneo</t>
   </si>
   <si>
     <t>Santa Margherita Ligure</t>
@@ -966,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>715.0331086920681</v>
@@ -983,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>574.0090810380123</v>
@@ -1000,7 +991,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>110.5810797221385</v>
@@ -1017,7 +1008,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>51.08551255344619</v>
@@ -1034,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>31.83590792648016</v>
@@ -1051,7 +1042,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>31.83590792648016</v>
@@ -1068,7 +1059,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>31.83590792648016</v>
@@ -1085,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1102,7 +1093,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>484.4298762655047</v>
@@ -1119,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>215.9503704147506</v>
@@ -1136,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>201.060511990242</v>
@@ -1153,7 +1144,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>422.0826101120583</v>
@@ -1170,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1187,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>715.0331086920681</v>
@@ -1204,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>17.43352198491826</v>
@@ -1221,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>422.0826101120583</v>
@@ -1238,7 +1229,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>284.4560532103881</v>
@@ -1255,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>9287.246327755511</v>
@@ -1272,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>57.74447844585568</v>
@@ -1289,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1306,7 +1297,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>178.1371993833125</v>
@@ -1323,10 +1314,10 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E23">
-        <v>470.076361920008</v>
+        <v>471.2577377065373</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1340,7 +1331,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>2104.226269108043</v>
@@ -1357,10 +1348,10 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>230.0180026046376</v>
+        <v>229.7283879750382</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1374,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>8847.780230241287</v>
@@ -1391,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>5712.430663091539</v>
@@ -1408,7 +1399,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>57.74447844585568</v>
@@ -1425,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>1086.958730333526</v>
@@ -1442,7 +1433,7 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>8763.597944601584</v>
@@ -1459,7 +1450,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E31">
         <v>63.09787984020815</v>
@@ -1476,7 +1467,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>63.09787984020815</v>
@@ -1493,7 +1484,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33">
         <v>295.8752826017624</v>
@@ -1510,7 +1501,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E34">
         <v>7392.56833696116</v>
@@ -1527,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1544,7 +1535,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1561,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1578,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>17.43352198491826</v>
@@ -1595,7 +1586,7 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1612,7 +1603,7 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E40">
         <v>51.08551255344619</v>
@@ -1629,7 +1620,7 @@
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>284.4560532103881</v>
@@ -1646,7 +1637,7 @@
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E42">
         <v>326.6384588216701</v>
@@ -1663,7 +1654,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E43">
         <v>466.9668376539007</v>
@@ -1680,7 +1671,7 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E44">
         <v>42.92043104882125</v>
@@ -1697,7 +1688,7 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <v>57.74447844585568</v>
@@ -1714,7 +1705,7 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>57.74447844585568</v>
@@ -1731,7 +1722,7 @@
         <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E47">
         <v>17.2284978884665</v>
@@ -1748,7 +1739,7 @@
         <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>422.0826101120583</v>
@@ -1765,7 +1756,7 @@
         <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>57.74447844585568</v>
@@ -1782,7 +1773,7 @@
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E50">
         <v>34.27373391109668</v>
@@ -1799,7 +1790,7 @@
         <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <v>341.937444949916</v>
@@ -1816,7 +1807,7 @@
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E52">
         <v>433.7440146807688</v>
@@ -1833,7 +1824,7 @@
         <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E53">
         <v>433.7440146807688</v>
@@ -1850,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E54">
         <v>31.83590792648016</v>
@@ -1867,7 +1858,7 @@
         <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E55">
         <v>57.74447844585568</v>
@@ -1884,7 +1875,7 @@
         <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E56">
         <v>73.14674190639285</v>
@@ -1901,7 +1892,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <v>73.14674190639285</v>
@@ -1918,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E58">
         <v>42.92043104882125</v>
@@ -1935,7 +1926,7 @@
         <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1952,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>311.2612498197798</v>
@@ -1969,7 +1960,7 @@
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>255.7863711774202</v>
@@ -1986,10 +1977,10 @@
         <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E62">
-        <v>2015.594714008756</v>
+        <v>2016.119184129029</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2003,7 +1994,7 @@
         <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>11309.96266647776</v>
@@ -2020,10 +2011,10 @@
         <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E64">
-        <v>9515.349016363949</v>
+        <v>9520.133093915338</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2037,7 +2028,7 @@
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>10028.99852708247</v>
@@ -2054,7 +2045,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>9709.038906833362</v>
@@ -2071,7 +2062,7 @@
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2088,7 +2079,7 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2105,7 +2096,7 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2122,7 +2113,7 @@
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E70">
         <v>30.49189543715444</v>
@@ -2139,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2156,7 +2147,7 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E72">
         <v>388.7774122719298</v>
@@ -2173,7 +2164,7 @@
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E73">
         <v>10.75373984761802</v>
@@ -2190,7 +2181,7 @@
         <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E74">
         <v>778.7115825042342</v>
@@ -2207,7 +2198,7 @@
         <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E75">
         <v>1816.824757437173</v>
@@ -2224,10 +2215,10 @@
         <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E76">
-        <v>9380.379382202476</v>
+        <v>1760.066089927223</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2241,7 +2232,7 @@
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E77">
         <v>140.176556405236</v>
@@ -2258,7 +2249,7 @@
         <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E78">
         <v>422.0826101120583</v>
@@ -2275,7 +2266,7 @@
         <v>47</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E79">
         <v>657.8868372655623</v>
@@ -2292,7 +2283,7 @@
         <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E80">
         <v>177.7700332746981</v>
@@ -2306,10 +2297,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E81">
         <v>17.35751080464608</v>
@@ -2326,7 +2317,7 @@
         <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E82">
         <v>34.27373391109668</v>
@@ -2343,7 +2334,7 @@
         <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E83">
         <v>49.81838390962837</v>
@@ -2357,10 +2348,10 @@
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E84">
         <v>1115.665571014599</v>
@@ -2377,7 +2368,7 @@
         <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E85">
         <v>1684.154524845563</v>
@@ -2394,7 +2385,7 @@
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E86">
         <v>7428.981570419303</v>
@@ -2411,7 +2402,7 @@
         <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E87">
         <v>31.83590792648016</v>
@@ -2428,7 +2419,7 @@
         <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E88">
         <v>339.4602551883268</v>
@@ -2445,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E89">
         <v>31.83590792648016</v>
@@ -2462,7 +2453,7 @@
         <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E90">
         <v>31.83590792648016</v>
@@ -2479,7 +2470,7 @@
         <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E91">
         <v>31.83590792648016</v>
@@ -2496,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E92">
         <v>178.1371993833125</v>
@@ -2513,7 +2504,7 @@
         <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E93">
         <v>126.8171911187749</v>
@@ -2530,7 +2521,7 @@
         <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E94">
         <v>187.8678086871779</v>
@@ -2547,7 +2538,7 @@
         <v>31</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E95">
         <v>223.2680172634742</v>
@@ -2564,7 +2555,7 @@
         <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E96">
         <v>1503.278574350884</v>
@@ -2578,10 +2569,10 @@
         <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E97">
         <v>752.9056124258232</v>
@@ -2598,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E98">
         <v>422.0826101120583</v>
@@ -2615,7 +2606,7 @@
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E99">
         <v>422.0826101120583</v>
@@ -2632,7 +2623,7 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E100">
         <v>57.74447844585568</v>
@@ -2649,7 +2640,7 @@
         <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2666,7 +2657,7 @@
         <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E102">
         <v>347.9814499867891</v>
@@ -2683,7 +2674,7 @@
         <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E103">
         <v>48.16519144892504</v>
@@ -2700,7 +2691,7 @@
         <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E104">
         <v>386.8674548057874</v>
@@ -2717,7 +2708,7 @@
         <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E105">
         <v>391.6891185150668</v>
@@ -2734,7 +2725,7 @@
         <v>31</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E106">
         <v>284.4560532103881</v>
@@ -2751,7 +2742,7 @@
         <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E107">
         <v>466.9668376539007</v>
@@ -2765,10 +2756,10 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E108">
         <v>737.7644233391504</v>
@@ -2785,10 +2776,10 @@
         <v>31</v>
       </c>
       <c r="D109" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E109">
-        <v>415.0879228427497</v>
+        <v>414.8214132396562</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2802,7 +2793,7 @@
         <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E110">
         <v>1205.150373622149</v>
@@ -2816,10 +2807,10 @@
         <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E111">
         <v>737.7644233391504</v>
@@ -2836,7 +2827,7 @@
         <v>31</v>
       </c>
       <c r="D112" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E112">
         <v>286.8072470912496</v>
@@ -2850,10 +2841,10 @@
         <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D113" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E113">
         <v>761.1887967007319</v>
@@ -2870,7 +2861,7 @@
         <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E114">
         <v>328.0373014869849</v>
@@ -2887,7 +2878,7 @@
         <v>31</v>
       </c>
       <c r="D115" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E115">
         <v>17.35751080464608</v>
@@ -2904,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E116">
         <v>142.7457363542604</v>
@@ -2918,10 +2909,10 @@
         <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E117">
         <v>737.7644233391504</v>
@@ -2938,7 +2929,7 @@
         <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E118">
         <v>422.0826101120583</v>
@@ -2955,7 +2946,7 @@
         <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E119">
         <v>183.2816968838343</v>
@@ -2969,10 +2960,10 @@
         <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E120">
         <v>1362.522584990526</v>
@@ -2986,10 +2977,10 @@
         <v>25</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D121" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E121">
         <v>761.1887967007319</v>
@@ -3006,7 +2997,7 @@
         <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E122">
         <v>422.0826101120583</v>
@@ -3023,7 +3014,7 @@
         <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E123">
         <v>57.74447844585568</v>
@@ -3040,7 +3031,7 @@
         <v>31</v>
       </c>
       <c r="D124" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E124">
         <v>178.1371993833125</v>
@@ -3057,7 +3048,7 @@
         <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E125">
         <v>422.0826101120583</v>
@@ -3074,7 +3065,7 @@
         <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E126">
         <v>183.2816968838343</v>
@@ -3091,7 +3082,7 @@
         <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E127">
         <v>31.83590792648016</v>
@@ -3108,7 +3099,7 @@
         <v>31</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E128">
         <v>106.1225511554122</v>
@@ -3125,7 +3116,7 @@
         <v>31</v>
       </c>
       <c r="D129" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E129">
         <v>17.43352198491826</v>
@@ -3142,7 +3133,7 @@
         <v>31</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E130">
         <v>17.43352198491826</v>
@@ -3159,7 +3150,7 @@
         <v>31</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E131">
         <v>17.43352198491826</v>
@@ -3176,7 +3167,7 @@
         <v>31</v>
       </c>
       <c r="D132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E132">
         <v>17.43352198491826</v>
@@ -3193,7 +3184,7 @@
         <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E133">
         <v>440.5745925330593</v>
@@ -3210,7 +3201,7 @@
         <v>31</v>
       </c>
       <c r="D134" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E134">
         <v>61.52305431048678</v>
@@ -3227,7 +3218,7 @@
         <v>31</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E135">
         <v>183.2816968838343</v>
@@ -3244,7 +3235,7 @@
         <v>31</v>
       </c>
       <c r="D136" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E136">
         <v>177.7700332746981</v>
@@ -3261,7 +3252,7 @@
         <v>31</v>
       </c>
       <c r="D137" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E137">
         <v>51.08551255344619</v>
@@ -3278,7 +3269,7 @@
         <v>31</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3295,7 +3286,7 @@
         <v>31</v>
       </c>
       <c r="D139" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E139">
         <v>51.08551255344619</v>
@@ -3312,7 +3303,7 @@
         <v>31</v>
       </c>
       <c r="D140" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E140">
         <v>73.14674190639285</v>
@@ -3329,7 +3320,7 @@
         <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E141">
         <v>93.35493132427064</v>
@@ -3346,10 +3337,10 @@
         <v>31</v>
       </c>
       <c r="D142" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E142">
-        <v>3993.883748002601</v>
+        <v>21.63433672241336</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3363,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="D143" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E143">
         <v>258.4981669757832</v>
@@ -3380,7 +3371,7 @@
         <v>31</v>
       </c>
       <c r="D144" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E144">
         <v>127.8483591257997</v>
@@ -3397,7 +3388,7 @@
         <v>31</v>
       </c>
       <c r="D145" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E145">
         <v>92.56361046624879</v>
@@ -3414,7 +3405,7 @@
         <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E146">
         <v>92.56361046624879</v>
@@ -3431,7 +3422,7 @@
         <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E147">
         <v>69.79429446974272</v>
@@ -3448,7 +3439,7 @@
         <v>31</v>
       </c>
       <c r="D148" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E148">
         <v>31.83590792648016</v>
@@ -3465,7 +3456,7 @@
         <v>31</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E149">
         <v>42.92043104882125</v>
@@ -3482,7 +3473,7 @@
         <v>31</v>
       </c>
       <c r="D150" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E150">
         <v>42.92043104882125</v>
@@ -3499,7 +3490,7 @@
         <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E151">
         <v>57.74447844585568</v>
@@ -3516,10 +3507,10 @@
         <v>31</v>
       </c>
       <c r="D152" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E152">
-        <v>200.9008805324987</v>
+        <v>200.3130011882388</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3533,7 +3524,7 @@
         <v>31</v>
       </c>
       <c r="D153" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E153">
         <v>57.74447844585568</v>
@@ -3550,7 +3541,7 @@
         <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E154">
         <v>31.83590792648016</v>
@@ -3567,7 +3558,7 @@
         <v>31</v>
       </c>
       <c r="D155" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E155">
         <v>57.74447844585568</v>
@@ -3584,7 +3575,7 @@
         <v>31</v>
       </c>
       <c r="D156" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E156">
         <v>57.74447844585568</v>
@@ -3601,7 +3592,7 @@
         <v>31</v>
       </c>
       <c r="D157" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E157">
         <v>57.74447844585568</v>
@@ -3618,7 +3609,7 @@
         <v>31</v>
       </c>
       <c r="D158" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E158">
         <v>351.3985981522048</v>
@@ -3635,7 +3626,7 @@
         <v>31</v>
       </c>
       <c r="D159" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E159">
         <v>57.74447844585568</v>
@@ -3652,7 +3643,7 @@
         <v>31</v>
       </c>
       <c r="D160" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E160">
         <v>49.47565233144434</v>
@@ -3669,7 +3660,7 @@
         <v>31</v>
       </c>
       <c r="D161" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E161">
         <v>64.34643669475415</v>
@@ -3686,7 +3677,7 @@
         <v>31</v>
       </c>
       <c r="D162" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E162">
         <v>73.14674190639285</v>
@@ -3703,7 +3694,7 @@
         <v>31</v>
       </c>
       <c r="D163" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E163">
         <v>51.08551255344619</v>
@@ -3720,7 +3711,7 @@
         <v>31</v>
       </c>
       <c r="D164" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E164">
         <v>84.44277573524262</v>
@@ -3737,7 +3728,7 @@
         <v>31</v>
       </c>
       <c r="D165" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E165">
         <v>183.2816968838343</v>
@@ -3754,7 +3745,7 @@
         <v>31</v>
       </c>
       <c r="D166" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E166">
         <v>17.43352198491826</v>
@@ -3771,7 +3762,7 @@
         <v>31</v>
       </c>
       <c r="D167" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E167">
         <v>42.92043104882125</v>
@@ -3788,7 +3779,7 @@
         <v>31</v>
       </c>
       <c r="D168" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E168">
         <v>57.74447844585568</v>
@@ -3805,7 +3796,7 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E169">
         <v>64.34643669475415</v>
@@ -3822,7 +3813,7 @@
         <v>31</v>
       </c>
       <c r="D170" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E170">
         <v>31.83590792648016</v>
@@ -3839,7 +3830,7 @@
         <v>31</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E171">
         <v>49.81838390962837</v>
@@ -3856,7 +3847,7 @@
         <v>31</v>
       </c>
       <c r="D172" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E172">
         <v>275.6177454304217</v>
@@ -3873,7 +3864,7 @@
         <v>31</v>
       </c>
       <c r="D173" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E173">
         <v>453.7586578051154</v>
@@ -3890,7 +3881,7 @@
         <v>31</v>
       </c>
       <c r="D174" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -3907,7 +3898,7 @@
         <v>31</v>
       </c>
       <c r="D175" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -3924,7 +3915,7 @@
         <v>31</v>
       </c>
       <c r="D176" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -3941,7 +3932,7 @@
         <v>31</v>
       </c>
       <c r="D177" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -3958,7 +3949,7 @@
         <v>31</v>
       </c>
       <c r="D178" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -3975,7 +3966,7 @@
         <v>31</v>
       </c>
       <c r="D179" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E179">
         <v>284.4560532103881</v>
@@ -3992,7 +3983,7 @@
         <v>31</v>
       </c>
       <c r="D180" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E180">
         <v>343.7963117280181</v>
@@ -4009,7 +4000,7 @@
         <v>31</v>
       </c>
       <c r="D181" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E181">
         <v>416.753604928227</v>
@@ -4026,7 +4017,7 @@
         <v>31</v>
       </c>
       <c r="D182" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E182">
         <v>41.60498214358641</v>
@@ -4043,7 +4034,7 @@
         <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E183">
         <v>135.3789821863338</v>
@@ -4060,7 +4051,7 @@
         <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E184">
         <v>178.1371993833125</v>
@@ -4077,7 +4068,7 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E185">
         <v>57.74447844585568</v>
@@ -4094,7 +4085,7 @@
         <v>31</v>
       </c>
       <c r="D186" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -4111,7 +4102,7 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E187">
         <v>178.1371993833125</v>
@@ -4128,7 +4119,7 @@
         <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E188">
         <v>440.5745925330593</v>
@@ -4145,7 +4136,7 @@
         <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E189">
         <v>57.74447844585568</v>
@@ -4162,7 +4153,7 @@
         <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E190">
         <v>57.74447844585568</v>
@@ -4179,7 +4170,7 @@
         <v>31</v>
       </c>
       <c r="D191" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E191">
         <v>177.7700332746981</v>
@@ -4196,7 +4187,7 @@
         <v>31</v>
       </c>
       <c r="D192" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E192">
         <v>57.74447844585568</v>
@@ -4213,7 +4204,7 @@
         <v>31</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E193">
         <v>57.74447844585568</v>
@@ -4230,7 +4221,7 @@
         <v>33</v>
       </c>
       <c r="D194" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E194">
         <v>221.4992770424077</v>
@@ -4247,7 +4238,7 @@
         <v>33</v>
       </c>
       <c r="D195" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E195">
         <v>101.4015883187768</v>
@@ -4264,7 +4255,7 @@
         <v>31</v>
       </c>
       <c r="D196" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E196">
         <v>82.96011192245113</v>
@@ -4281,7 +4272,7 @@
         <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E197">
         <v>73.14674190639285</v>
@@ -4298,7 +4289,7 @@
         <v>40</v>
       </c>
       <c r="D198" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E198">
         <v>598.6275207577526</v>
@@ -4315,7 +4306,7 @@
         <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E199">
         <v>598.6275207577526</v>
@@ -4332,7 +4323,7 @@
         <v>31</v>
       </c>
       <c r="D200" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -4349,7 +4340,7 @@
         <v>31</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E201">
         <v>31.83590792648016</v>
@@ -4366,7 +4357,7 @@
         <v>31</v>
       </c>
       <c r="D202" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -4383,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E203">
         <v>284.4560532103881</v>
@@ -4400,7 +4391,7 @@
         <v>31</v>
       </c>
       <c r="D204" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E204">
         <v>284.4560532103881</v>
@@ -4417,7 +4408,7 @@
         <v>31</v>
       </c>
       <c r="D205" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E205">
         <v>15.69707060976659</v>
@@ -4434,7 +4425,7 @@
         <v>31</v>
       </c>
       <c r="D206" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E206">
         <v>110.5919621592209</v>
@@ -4451,7 +4442,7 @@
         <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E207">
         <v>256.9178293639488</v>
@@ -4468,7 +4459,7 @@
         <v>31</v>
       </c>
       <c r="D208" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E208">
         <v>422.0826101120583</v>
@@ -4482,13 +4473,13 @@
         <v>26</v>
       </c>
       <c r="C209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D209" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E209">
-        <v>11556.41817899881</v>
+        <v>9030.874090117895</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4502,7 +4493,7 @@
         <v>31</v>
       </c>
       <c r="D210" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E210">
         <v>106.1225511554122</v>
@@ -4519,7 +4510,7 @@
         <v>31</v>
       </c>
       <c r="D211" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E211">
         <v>17.43352198491826</v>
@@ -4536,7 +4527,7 @@
         <v>31</v>
       </c>
       <c r="D212" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E212">
         <v>104.8256638630064</v>
@@ -4553,7 +4544,7 @@
         <v>31</v>
       </c>
       <c r="D213" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E213">
         <v>422.0826101120583</v>
@@ -4570,7 +4561,7 @@
         <v>31</v>
       </c>
       <c r="D214" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E214">
         <v>105.334580739294</v>
@@ -4587,7 +4578,7 @@
         <v>31</v>
       </c>
       <c r="D215" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E215">
         <v>232.4538006073875</v>
@@ -4604,7 +4595,7 @@
         <v>31</v>
       </c>
       <c r="D216" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E216">
         <v>17.43352198491826</v>
@@ -4621,7 +4612,7 @@
         <v>31</v>
       </c>
       <c r="D217" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E217">
         <v>101.4440212980777</v>
@@ -4638,7 +4629,7 @@
         <v>31</v>
       </c>
       <c r="D218" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E218">
         <v>91.71242213811239</v>
@@ -4655,7 +4646,7 @@
         <v>31</v>
       </c>
       <c r="D219" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E219">
         <v>126.8171911187749</v>
@@ -4672,7 +4663,7 @@
         <v>31</v>
       </c>
       <c r="D220" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E220">
         <v>17.43352198491826</v>
@@ -4689,7 +4680,7 @@
         <v>31</v>
       </c>
       <c r="D221" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E221">
         <v>17.61430815253444</v>
@@ -4706,7 +4697,7 @@
         <v>31</v>
       </c>
       <c r="D222" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E222">
         <v>31.83590792648016</v>
@@ -4723,7 +4714,7 @@
         <v>31</v>
       </c>
       <c r="D223" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E223">
         <v>341.937444949916</v>
@@ -4740,10 +4731,10 @@
         <v>29</v>
       </c>
       <c r="D224" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E224">
-        <v>470.076361920008</v>
+        <v>471.2577377065373</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4754,13 +4745,13 @@
         <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D225" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E225">
-        <v>955.3807687902914</v>
+        <v>758.7926763149568</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4774,7 +4765,7 @@
         <v>31</v>
       </c>
       <c r="D226" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E226">
         <v>57.74447844585568</v>
@@ -4791,7 +4782,7 @@
         <v>31</v>
       </c>
       <c r="D227" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E227">
         <v>177.7700332746981</v>
@@ -4808,7 +4799,7 @@
         <v>31</v>
       </c>
       <c r="D228" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -4822,10 +4813,10 @@
         <v>24</v>
       </c>
       <c r="C229" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D229" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E229">
         <v>808.8892444428546</v>
@@ -4842,7 +4833,7 @@
         <v>31</v>
       </c>
       <c r="D230" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E230">
         <v>408.3862973117799</v>
@@ -4856,10 +4847,10 @@
         <v>22</v>
       </c>
       <c r="C231" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D231" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E231">
         <v>897.6243588197411</v>
@@ -4876,7 +4867,7 @@
         <v>31</v>
       </c>
       <c r="D232" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E232">
         <v>38.31411691992636</v>
@@ -4890,10 +4881,10 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D233" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E233">
         <v>9287.246327755511</v>
@@ -4910,7 +4901,7 @@
         <v>31</v>
       </c>
       <c r="D234" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E234">
         <v>187.8678086871779</v>
@@ -4927,7 +4918,7 @@
         <v>31</v>
       </c>
       <c r="D235" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E235">
         <v>17.43352198491826</v>
@@ -4944,7 +4935,7 @@
         <v>31</v>
       </c>
       <c r="D236" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E236">
         <v>49.81838390962837</v>
@@ -4961,7 +4952,7 @@
         <v>31</v>
       </c>
       <c r="D237" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E237">
         <v>17.43352198491826</v>
@@ -4975,10 +4966,10 @@
         <v>24</v>
       </c>
       <c r="C238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D238" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E238">
         <v>684.675639285687</v>
@@ -4992,13 +4983,13 @@
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D239" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E239">
-        <v>470.076361920008</v>
+        <v>471.2577377065373</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5012,7 +5003,7 @@
         <v>31</v>
       </c>
       <c r="D240" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E240">
         <v>31.83590792648016</v>
@@ -5029,7 +5020,7 @@
         <v>31</v>
       </c>
       <c r="D241" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E241">
         <v>422.0826101120583</v>
@@ -5043,10 +5034,10 @@
         <v>24</v>
       </c>
       <c r="C242" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D242" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E242">
         <v>765.2706983112143</v>
@@ -5063,7 +5054,7 @@
         <v>31</v>
       </c>
       <c r="D243" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E243">
         <v>187.8678086871779</v>
@@ -5080,7 +5071,7 @@
         <v>31</v>
       </c>
       <c r="D244" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E244">
         <v>31.83590792648016</v>
@@ -5097,7 +5088,7 @@
         <v>31</v>
       </c>
       <c r="D245" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E245">
         <v>57.74447844585568</v>
@@ -5114,7 +5105,7 @@
         <v>31</v>
       </c>
       <c r="D246" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E246">
         <v>31.83590792648016</v>
@@ -5131,7 +5122,7 @@
         <v>31</v>
       </c>
       <c r="D247" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E247">
         <v>422.0826101120583</v>
@@ -5148,7 +5139,7 @@
         <v>31</v>
       </c>
       <c r="D248" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -5165,7 +5156,7 @@
         <v>31</v>
       </c>
       <c r="D249" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E249">
         <v>543.4378209910823</v>
@@ -5182,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="D250" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E250">
         <v>34.27373391109668</v>
@@ -5199,7 +5190,7 @@
         <v>31</v>
       </c>
       <c r="D251" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -5216,7 +5207,7 @@
         <v>31</v>
       </c>
       <c r="D252" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -5233,7 +5224,7 @@
         <v>31</v>
       </c>
       <c r="D253" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E253">
         <v>312.7606824789574</v>
@@ -5250,7 +5241,7 @@
         <v>31</v>
       </c>
       <c r="D254" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E254">
         <v>284.4560532103881</v>
@@ -5267,7 +5258,7 @@
         <v>29</v>
       </c>
       <c r="D255" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E255">
         <v>715.0331086920681</v>
@@ -5284,7 +5275,7 @@
         <v>31</v>
       </c>
       <c r="D256" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E256">
         <v>156.1900322254771</v>
@@ -5301,7 +5292,7 @@
         <v>31</v>
       </c>
       <c r="D257" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E257">
         <v>422.0826101120583</v>
@@ -5318,7 +5309,7 @@
         <v>33</v>
       </c>
       <c r="D258" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E258">
         <v>140.176556405236</v>
@@ -5332,13 +5323,13 @@
         <v>4</v>
       </c>
       <c r="C259" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D259" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E259">
-        <v>470.076361920008</v>
+        <v>471.2577377065373</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5352,7 +5343,7 @@
         <v>31</v>
       </c>
       <c r="D260" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E260">
         <v>284.4560532103881</v>
@@ -5369,7 +5360,7 @@
         <v>31</v>
       </c>
       <c r="D261" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -5386,7 +5377,7 @@
         <v>31</v>
       </c>
       <c r="D262" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -5400,10 +5391,10 @@
         <v>27</v>
       </c>
       <c r="C263" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D263" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E263">
         <v>957.1915399106922</v>
@@ -5420,10 +5411,10 @@
         <v>31</v>
       </c>
       <c r="D264" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E264">
-        <v>172.3943860371437</v>
+        <v>170.8610159366172</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5437,7 +5428,7 @@
         <v>31</v>
       </c>
       <c r="D265" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E265">
         <v>91.99647065758684</v>
@@ -5454,7 +5445,7 @@
         <v>31</v>
       </c>
       <c r="D266" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E266">
         <v>487.1055981028349</v>
@@ -5471,7 +5462,7 @@
         <v>31</v>
       </c>
       <c r="D267" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E267">
         <v>49.47565233144434</v>
@@ -5488,7 +5479,7 @@
         <v>31</v>
       </c>
       <c r="D268" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E268">
         <v>42.92020037419598</v>
@@ -5505,7 +5496,7 @@
         <v>31</v>
       </c>
       <c r="D269" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E269">
         <v>49.81838390962837</v>
@@ -5522,7 +5513,7 @@
         <v>31</v>
       </c>
       <c r="D270" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E270">
         <v>31.83590792648016</v>
@@ -5539,7 +5530,7 @@
         <v>31</v>
       </c>
       <c r="D271" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E271">
         <v>90.2785707664829</v>
@@ -5556,7 +5547,7 @@
         <v>31</v>
       </c>
       <c r="D272" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E272">
         <v>31.83590792648016</v>
@@ -5573,7 +5564,7 @@
         <v>35</v>
       </c>
       <c r="D273" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E273">
         <v>2352.905143541231</v>
@@ -5590,10 +5581,10 @@
         <v>31</v>
       </c>
       <c r="D274" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E274">
-        <v>200.9008805324987</v>
+        <v>200.3130011882388</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5607,10 +5598,10 @@
         <v>33</v>
       </c>
       <c r="D275" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E275">
-        <v>195.4132736858416</v>
+        <v>194.4057345069232</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5624,7 +5615,7 @@
         <v>31</v>
       </c>
       <c r="D276" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -5641,7 +5632,7 @@
         <v>31</v>
       </c>
       <c r="D277" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E277">
         <v>63.66831842538619</v>
@@ -5658,7 +5649,7 @@
         <v>31</v>
       </c>
       <c r="D278" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E278">
         <v>286.8072470912496</v>
@@ -5675,7 +5666,7 @@
         <v>31</v>
       </c>
       <c r="D279" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E279">
         <v>422.0826101120583</v>
@@ -5692,7 +5683,7 @@
         <v>31</v>
       </c>
       <c r="D280" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E280">
         <v>12.47255155770372</v>
@@ -5709,7 +5700,7 @@
         <v>31</v>
       </c>
       <c r="D281" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -5726,7 +5717,7 @@
         <v>31</v>
       </c>
       <c r="D282" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E282">
         <v>11.82167156712177</v>
@@ -5743,7 +5734,7 @@
         <v>31</v>
       </c>
       <c r="D283" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E283">
         <v>17.43352198491826</v>
@@ -5760,7 +5751,7 @@
         <v>31</v>
       </c>
       <c r="D284" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E284">
         <v>17.43352198491826</v>
@@ -5777,7 +5768,7 @@
         <v>31</v>
       </c>
       <c r="D285" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E285">
         <v>17.43352198491826</v>
@@ -5794,7 +5785,7 @@
         <v>31</v>
       </c>
       <c r="D286" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -5811,7 +5802,7 @@
         <v>31</v>
       </c>
       <c r="D287" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E287">
         <v>12.47255155770372</v>
@@ -5828,7 +5819,7 @@
         <v>31</v>
       </c>
       <c r="D288" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E288">
         <v>12.47255155770372</v>
@@ -5845,7 +5836,7 @@
         <v>31</v>
       </c>
       <c r="D289" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E289">
         <v>30.49189543715444</v>
@@ -5859,13 +5850,13 @@
         <v>28</v>
       </c>
       <c r="C290" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D290" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E290">
-        <v>948.4224954366808</v>
+        <v>956.1433504485269</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5876,10 +5867,10 @@
         <v>24</v>
       </c>
       <c r="C291" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D291" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E291">
         <v>627.9939236015676</v>
@@ -5896,7 +5887,7 @@
         <v>31</v>
       </c>
       <c r="D292" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E292">
         <v>142.7457363542604</v>
@@ -5913,7 +5904,7 @@
         <v>31</v>
       </c>
       <c r="D293" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E293">
         <v>422.0826101120583</v>
@@ -5930,7 +5921,7 @@
         <v>31</v>
       </c>
       <c r="D294" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E294">
         <v>126.8171911187749</v>
@@ -5947,7 +5938,7 @@
         <v>31</v>
       </c>
       <c r="D295" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E295">
         <v>57.74447844585568</v>
@@ -5964,7 +5955,7 @@
         <v>31</v>
       </c>
       <c r="D296" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E296">
         <v>17.35751080464608</v>
@@ -5981,7 +5972,7 @@
         <v>31</v>
       </c>
       <c r="D297" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -5998,7 +5989,7 @@
         <v>31</v>
       </c>
       <c r="D298" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E298">
         <v>17.35751080464608</v>
@@ -6015,7 +6006,7 @@
         <v>31</v>
       </c>
       <c r="D299" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E299">
         <v>343.7963117280181</v>
